--- a/toy_example (excel)/Toy_Example_Final.xlsx
+++ b/toy_example (excel)/Toy_Example_Final.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://villanova.sharepoint.com/teams/ComputationalGraph/Shared Documents/2022-railway-computational graph/code_and_case/case code/TRE_submission/Round 1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xwu03\Villanova University\Github\Railway-Computational-Graph\toy_example (excel)\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{46B509FC-0C5A-4053-AD9B-DECF2F8E97A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E26FFEA2-944D-4D4D-9232-51F0C2C3D770}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-990" windowWidth="29040" windowHeight="15720" xr2:uid="{DC21BB35-7FA0-4781-B7DC-7D9655C756D0}"/>
   </bookViews>
@@ -154,9 +154,6 @@
     <t>Penalty term</t>
   </si>
   <si>
-    <t>Penalty coefficent</t>
-  </si>
-  <si>
     <t>Total loss function</t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>RESULTS SUMMARY</t>
+  </si>
+  <si>
+    <t>Penalty coefficient</t>
   </si>
 </sst>
 </file>
@@ -450,7 +450,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -537,12 +537,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1485,8 +1479,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BA8B729-9FDB-4852-871A-5DAE4CC9E3F9}">
   <dimension ref="A1:U23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U29" sqref="U29"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1509,7 +1503,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="32" t="s">
+      <c r="A1" s="30" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1518,7 +1512,7 @@
         <v>14</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C2" s="6" t="s">
         <v>17</v>
@@ -1691,16 +1685,16 @@
       <c r="J7" s="15"/>
     </row>
     <row r="8" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="O8" s="32" t="s">
-        <v>28</v>
+      <c r="O8" s="30" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A9" s="32" t="s">
+      <c r="A9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B9" s="33" t="s">
-        <v>29</v>
+      <c r="B9" s="31" t="s">
+        <v>28</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>18</v>
@@ -1715,7 +1709,7 @@
         <v>9</v>
       </c>
       <c r="O9" s="5" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P9" s="6" t="s">
         <v>18</v>
@@ -1733,11 +1727,11 @@
         <v>25</v>
       </c>
       <c r="U9" s="20" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.35">
-      <c r="A10" s="34"/>
+      <c r="A10" s="32"/>
       <c r="B10" s="2" t="s">
         <v>12</v>
       </c>
@@ -1794,7 +1788,6 @@
         <v>0.11111054568112456</v>
       </c>
       <c r="F11" s="15"/>
-      <c r="G11" s="31"/>
       <c r="O11" s="12" t="s">
         <v>13</v>
       </c>
@@ -1823,7 +1816,7 @@
     </row>
     <row r="14" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="S14" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="T14" s="4">
         <f>H7+F21+T11</f>
@@ -1831,17 +1824,17 @@
       </c>
     </row>
     <row r="15" spans="1:21" ht="15" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="O15" s="35"/>
+      <c r="O15" s="33"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.35">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C16" s="6" t="s">
         <v>0</v>
@@ -1858,8 +1851,6 @@
       <c r="G16" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="H16" s="30"/>
-      <c r="I16" s="30"/>
     </row>
     <row r="17" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A17" s="9">
@@ -1885,8 +1876,6 @@
       <c r="G17" s="10">
         <v>1.1428560530474927</v>
       </c>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
     </row>
     <row r="18" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A18" s="9">
@@ -1910,8 +1899,6 @@
         <v>0.32653434874581616</v>
       </c>
       <c r="G18" s="11"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
     </row>
     <row r="19" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="9">
@@ -1935,8 +1922,6 @@
         <v>8.1631407569232206E-2</v>
       </c>
       <c r="G19" s="11"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
     </row>
     <row r="20" spans="1:18" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="12">
@@ -1960,10 +1945,8 @@
         <v>8.1631407569232206E-2</v>
       </c>
       <c r="G20" s="15"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="O20" s="32" t="s">
-        <v>30</v>
+      <c r="O20" s="30" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="21" spans="1:18" x14ac:dyDescent="0.35">
@@ -1975,7 +1958,7 @@
         <v>0.57142857145351278</v>
       </c>
       <c r="O21" s="24" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="P21" s="25" t="s">
         <v>3</v>
@@ -1984,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:18" x14ac:dyDescent="0.35">
@@ -2016,8 +1999,8 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="T14">
-    <cfRule type="iconSet" priority="2">
+  <conditionalFormatting sqref="R22">
+    <cfRule type="iconSet" priority="1">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2025,8 +2008,8 @@
       </iconSet>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R22">
-    <cfRule type="iconSet" priority="1">
+  <conditionalFormatting sqref="T14">
+    <cfRule type="iconSet" priority="2">
       <iconSet iconSet="3Arrows">
         <cfvo type="percent" val="0"/>
         <cfvo type="percent" val="33"/>
@@ -2040,21 +2023,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B84345FDCA7BE543BF0640D3FBB3531E" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="cb1d77d4f2da71ba00c83f9c97f3fc2b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="c6d71443-a161-4bbb-84ef-62304fcabfc5" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="61d11f3542a041e89b7aca13d0c228ce" ns2:_="">
     <xsd:import namespace="c6d71443-a161-4bbb-84ef-62304fcabfc5"/>
@@ -2222,24 +2190,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BB83D1A-AB30-46D1-AE5A-C2518CF2FB0C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129AD259-01DA-43EF-B327-B14FBF26A3DC}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CC48B7E4-CBD6-44CD-9724-8A6E1D677703}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2255,4 +2221,21 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{129AD259-01DA-43EF-B327-B14FBF26A3DC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8BB83D1A-AB30-46D1-AE5A-C2518CF2FB0C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>